--- a/InputData/ccs/BFoCPAbS/BAU Fraction of CCS Potential Achieved by Sector.xlsx
+++ b/InputData/ccs/BFoCPAbS/BAU Fraction of CCS Potential Achieved by Sector.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10411"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CodeRepositories\eps-us\InputData\ccs\BFoCPAbS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/users/nathaniyer/library/containers/com.microsoft.excel/data/state-eps-data-repository/nj/ccs/bfocpabs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{761A94E6-8C64-4FAE-93AD-B64E443CE98C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E714CFA-82AF-4949-985D-62A2DC04D389}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12915" yWindow="255" windowWidth="33360" windowHeight="21600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -715,7 +715,7 @@
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -779,6 +779,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -7434,20 +7435,23 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="103.42578125" customWidth="1"/>
-    <col min="3" max="3" width="17.140625" customWidth="1"/>
-    <col min="4" max="4" width="22.140625" customWidth="1"/>
-    <col min="5" max="5" width="18.42578125" customWidth="1"/>
+    <col min="2" max="2" width="103.5" customWidth="1"/>
+    <col min="3" max="3" width="17.1640625" customWidth="1"/>
+    <col min="4" max="4" width="22.1640625" customWidth="1"/>
+    <col min="5" max="5" width="18.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C1" s="35">
+        <v>44307</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -7455,83 +7459,83 @@
         <v>153</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B4" s="31">
         <v>2020</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B6" s="32" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B7" s="8"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="1"/>
       <c r="B16" s="3"/>
       <c r="C16" s="4"/>
       <c r="D16" s="5"/>
       <c r="E16" s="4"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="2"/>
       <c r="B18" s="3"/>
       <c r="C18" s="4"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B19" s="3"/>
       <c r="C19" s="4"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B20" s="3"/>
       <c r="C20" s="4"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
     </row>
@@ -7550,46 +7554,46 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="35.85546875" customWidth="1"/>
-    <col min="2" max="2" width="16.140625" customWidth="1"/>
-    <col min="3" max="3" width="13.42578125" customWidth="1"/>
-    <col min="4" max="4" width="8.85546875" customWidth="1"/>
-    <col min="5" max="5" width="9.42578125" customWidth="1"/>
+    <col min="1" max="1" width="35.83203125" customWidth="1"/>
+    <col min="2" max="2" width="16.1640625" customWidth="1"/>
+    <col min="3" max="3" width="13.5" customWidth="1"/>
+    <col min="4" max="4" width="8.83203125" customWidth="1"/>
+    <col min="5" max="5" width="9.5" customWidth="1"/>
     <col min="6" max="6" width="13" customWidth="1"/>
-    <col min="7" max="7" width="86.42578125" customWidth="1"/>
-    <col min="9" max="9" width="10.140625" style="22" customWidth="1"/>
-    <col min="10" max="10" width="25.5703125" style="9" customWidth="1"/>
-    <col min="11" max="11" width="37.5703125" style="9" customWidth="1"/>
+    <col min="7" max="7" width="86.5" customWidth="1"/>
+    <col min="9" max="9" width="10.1640625" style="22" customWidth="1"/>
+    <col min="10" max="10" width="25.5" style="9" customWidth="1"/>
+    <col min="11" max="11" width="37.5" style="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="15" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="15" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="15" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
@@ -7624,7 +7628,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="80" x14ac:dyDescent="0.2">
       <c r="A8" s="9" t="s">
         <v>21</v>
       </c>
@@ -7657,7 +7661,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A9" s="9" t="s">
         <v>26</v>
       </c>
@@ -7693,7 +7697,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A10" s="9" t="s">
         <v>29</v>
       </c>
@@ -7726,7 +7730,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" ht="48" x14ac:dyDescent="0.2">
       <c r="A11" s="9" t="s">
         <v>31</v>
       </c>
@@ -7759,7 +7763,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" ht="80" x14ac:dyDescent="0.2">
       <c r="A12" s="9" t="s">
         <v>34</v>
       </c>
@@ -7795,7 +7799,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A13" s="9" t="s">
         <v>36</v>
       </c>
@@ -7828,7 +7832,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" ht="80" x14ac:dyDescent="0.2">
       <c r="A14" s="9" t="s">
         <v>38</v>
       </c>
@@ -7860,7 +7864,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" ht="48" x14ac:dyDescent="0.2">
       <c r="A15" s="9" t="s">
         <v>43</v>
       </c>
@@ -7896,7 +7900,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" ht="48" x14ac:dyDescent="0.2">
       <c r="A16" s="9" t="s">
         <v>46</v>
       </c>
@@ -7928,7 +7932,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A17" s="9" t="s">
         <v>50</v>
       </c>
@@ -7961,7 +7965,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A18" s="9" t="s">
         <v>52</v>
       </c>
@@ -7997,7 +8001,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A19" s="9" t="s">
         <v>54</v>
       </c>
@@ -8030,7 +8034,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A20" s="9" t="s">
         <v>57</v>
       </c>
@@ -8063,7 +8067,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="120" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" ht="96" x14ac:dyDescent="0.2">
       <c r="A21" s="9" t="s">
         <v>59</v>
       </c>
@@ -8097,7 +8101,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="A22" s="9" t="s">
         <v>61</v>
       </c>
@@ -8130,7 +8134,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A23" s="9" t="s">
         <v>63</v>
       </c>
@@ -8163,7 +8167,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A24" s="9" t="s">
         <v>65</v>
       </c>
@@ -8197,7 +8201,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A25" s="9" t="s">
         <v>67</v>
       </c>
@@ -8230,7 +8234,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A26" s="9" t="s">
         <v>70</v>
       </c>
@@ -8262,7 +8266,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A27" s="9" t="s">
         <v>74</v>
       </c>
@@ -8295,7 +8299,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="28" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" ht="48" x14ac:dyDescent="0.2">
       <c r="A28" s="9" t="s">
         <v>76</v>
       </c>
@@ -8328,7 +8332,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="29" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" ht="80" x14ac:dyDescent="0.2">
       <c r="A29" s="9" t="s">
         <v>78</v>
       </c>
@@ -8360,7 +8364,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="30" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A30" s="9" t="s">
         <v>81</v>
       </c>
@@ -8394,7 +8398,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="31" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" ht="48" x14ac:dyDescent="0.2">
       <c r="A31" s="9" t="s">
         <v>83</v>
       </c>
@@ -8427,7 +8431,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="32" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A32" s="9" t="s">
         <v>85</v>
       </c>
@@ -8463,7 +8467,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="33" spans="1:10" ht="90" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" ht="80" x14ac:dyDescent="0.2">
       <c r="A33" s="9" t="s">
         <v>88</v>
       </c>
@@ -8496,7 +8500,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="34" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" ht="48" x14ac:dyDescent="0.2">
       <c r="A34" s="9" t="s">
         <v>90</v>
       </c>
@@ -8527,7 +8531,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="35" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" ht="48" x14ac:dyDescent="0.2">
       <c r="A35" s="9" t="s">
         <v>92</v>
       </c>
@@ -8560,7 +8564,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="36" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" ht="48" x14ac:dyDescent="0.2">
       <c r="A36" s="9" t="s">
         <v>94</v>
       </c>
@@ -8606,13 +8610,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="53.5703125" customWidth="1"/>
-    <col min="2" max="2" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="53.5" customWidth="1"/>
+    <col min="2" max="2" width="9.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:34" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="13" t="s">
         <v>101</v>
       </c>
@@ -8650,7 +8654,7 @@
       <c r="AG1" s="7"/>
       <c r="AH1" s="7"/>
     </row>
-    <row r="2" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="20"/>
       <c r="B2" s="33">
         <v>2018</v>
@@ -8752,7 +8756,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="3" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="27" t="s">
         <v>116</v>
       </c>
@@ -8889,7 +8893,7 @@
         <v>6400000</v>
       </c>
     </row>
-    <row r="4" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="27" t="s">
         <v>117</v>
       </c>
@@ -9026,7 +9030,7 @@
         <v>1400000</v>
       </c>
     </row>
-    <row r="5" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:34" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="28" t="s">
         <v>164</v>
       </c>
@@ -9163,7 +9167,7 @@
         <v>1490000</v>
       </c>
     </row>
-    <row r="6" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:34" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="28" t="s">
         <v>165</v>
       </c>
@@ -9300,7 +9304,7 @@
         <v>7575000</v>
       </c>
     </row>
-    <row r="7" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:34" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="28" t="s">
         <v>178</v>
       </c>
@@ -9437,63 +9441,63 @@
         <v>23138095.238095239</v>
       </c>
     </row>
-    <row r="8" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="9" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="10" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="11" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="12" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="13" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="14" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="15" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="16" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="17"/>
     </row>
-    <row r="17" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="17"/>
     </row>
-    <row r="18" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="19" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="20" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="21" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="22" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="23" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="24" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="19" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="20" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="21" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="22" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="23" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="24" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="25" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="26" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="17"/>
     </row>
-    <row r="27" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="28" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="29" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="30" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="31" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="17"/>
     </row>
-    <row r="32" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="17"/>
       <c r="B32" s="33">
         <v>2018</v>
@@ -9595,7 +9599,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="33" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="27" t="s">
         <v>116</v>
       </c>
@@ -9732,7 +9736,7 @@
         <v>17191111.111110926</v>
       </c>
     </row>
-    <row r="34" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" s="27" t="s">
         <v>117</v>
       </c>
@@ -9869,7 +9873,7 @@
         <v>1400000</v>
       </c>
     </row>
-    <row r="35" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:34" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A35" s="28" t="s">
         <v>164</v>
       </c>
@@ -10006,7 +10010,7 @@
         <v>1490000</v>
       </c>
     </row>
-    <row r="36" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:34" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A36" s="28" t="s">
         <v>165</v>
       </c>
@@ -10143,7 +10147,7 @@
         <v>31325000</v>
       </c>
     </row>
-    <row r="37" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:34" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A37" s="28" t="s">
         <v>178</v>
       </c>
@@ -10280,55 +10284,55 @@
         <v>24382539.682539687</v>
       </c>
     </row>
-    <row r="38" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A38" s="17"/>
     </row>
-    <row r="39" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A39" s="17"/>
     </row>
-    <row r="40" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A40" s="17"/>
     </row>
-    <row r="41" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A41" s="17"/>
     </row>
-    <row r="42" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A42" s="17"/>
     </row>
-    <row r="43" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A43" s="17"/>
     </row>
-    <row r="44" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A44" s="17"/>
     </row>
-    <row r="45" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A45" s="17"/>
     </row>
-    <row r="46" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A46" s="17"/>
     </row>
-    <row r="47" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A47" s="17"/>
     </row>
-    <row r="48" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A48" s="17"/>
     </row>
-    <row r="49" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A49" s="17"/>
     </row>
-    <row r="50" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A50" s="17"/>
     </row>
-    <row r="51" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A51" s="17"/>
     </row>
-    <row r="52" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A52" s="17"/>
     </row>
-    <row r="53" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A53" s="17"/>
     </row>
-    <row r="55" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A55" s="14" t="s">
         <v>149</v>
       </c>
@@ -10366,12 +10370,12 @@
       <c r="AG55" s="7"/>
       <c r="AH55" s="7"/>
     </row>
-    <row r="56" spans="1:34" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:34" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A56" s="3" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="57" spans="1:34" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:34" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A57" s="8" t="s">
         <v>100</v>
       </c>
@@ -10472,7 +10476,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="58" spans="1:34" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:34" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A58" s="8" t="s">
         <v>133</v>
       </c>
@@ -10573,7 +10577,7 @@
         <v>957155000000000</v>
       </c>
     </row>
-    <row r="59" spans="1:34" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:34" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A59" s="8" t="s">
         <v>134</v>
       </c>
@@ -10674,7 +10678,7 @@
         <v>344835000000000</v>
       </c>
     </row>
-    <row r="60" spans="1:34" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:34" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A60" s="8" t="s">
         <v>135</v>
       </c>
@@ -10775,7 +10779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:34" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:34" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A61" s="8" t="s">
         <v>136</v>
       </c>
@@ -10876,7 +10880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:34" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:34" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A62" s="8" t="s">
         <v>137</v>
       </c>
@@ -10977,7 +10981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:34" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:34" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A63" s="8" t="s">
         <v>138</v>
       </c>
@@ -11078,7 +11082,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:34" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:34" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A64" s="8" t="s">
         <v>139</v>
       </c>
@@ -11179,7 +11183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:34" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:34" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A65" s="8" t="s">
         <v>140</v>
       </c>
@@ -11280,7 +11284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:34" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:34" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A66" s="8" t="s">
         <v>141</v>
       </c>
@@ -11381,7 +11385,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:34" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:34" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A67" s="8" t="s">
         <v>142</v>
       </c>
@@ -11482,7 +11486,7 @@
         <v>11286300000000</v>
       </c>
     </row>
-    <row r="68" spans="1:34" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:34" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A68" s="8" t="s">
         <v>143</v>
       </c>
@@ -11583,7 +11587,7 @@
         <v>99792600000000</v>
       </c>
     </row>
-    <row r="69" spans="1:34" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:34" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A69" s="8" t="s">
         <v>144</v>
       </c>
@@ -11684,7 +11688,7 @@
         <v>43507100000000</v>
       </c>
     </row>
-    <row r="70" spans="1:34" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:34" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A70" s="8" t="s">
         <v>145</v>
       </c>
@@ -11785,7 +11789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:34" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:34" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A71" s="8" t="s">
         <v>146</v>
       </c>
@@ -11886,7 +11890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:34" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:34" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A72" s="8" t="s">
         <v>147</v>
       </c>
@@ -11987,7 +11991,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:34" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:34" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A73" s="8" t="s">
         <v>148</v>
       </c>
@@ -12088,7 +12092,7 @@
         <v>24454600000000</v>
       </c>
     </row>
-    <row r="74" spans="1:34" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:34" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B74" s="26"/>
       <c r="C74" s="26"/>
       <c r="D74" s="26"/>
@@ -12122,12 +12126,12 @@
       <c r="AF74" s="26"/>
       <c r="AG74" s="26"/>
     </row>
-    <row r="75" spans="1:34" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:34" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A75" s="3" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="76" spans="1:34" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:34" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A76" s="8" t="s">
         <v>100</v>
       </c>
@@ -12228,7 +12232,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="77" spans="1:34" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:34" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A77" s="8" t="s">
         <v>150</v>
       </c>
@@ -12329,7 +12333,7 @@
         <v>455116000000000</v>
       </c>
     </row>
-    <row r="78" spans="1:34" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:34" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A78" s="8" t="s">
         <v>151</v>
       </c>
@@ -12430,7 +12434,7 @@
         <v>400057000000000</v>
       </c>
     </row>
-    <row r="80" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:34" ht="16" x14ac:dyDescent="0.2">
       <c r="A80" s="13" t="s">
         <v>102</v>
       </c>
@@ -12468,7 +12472,7 @@
       <c r="AG80" s="7"/>
       <c r="AH80" s="7"/>
     </row>
-    <row r="81" spans="1:33" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:33" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A81" s="20"/>
       <c r="B81">
         <v>2019</v>
@@ -12567,765 +12571,765 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="82" spans="1:33" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:33" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A82" s="27" t="s">
         <v>116</v>
       </c>
       <c r="B82" s="29">
-        <f>C33*10^6/B58</f>
+        <f t="shared" ref="B82:AG82" si="5">C33*10^6/B58</f>
         <v>0</v>
       </c>
       <c r="C82" s="29">
-        <f>D33*10^6/C58</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="D82" s="29">
-        <f>E33*10^6/D58</f>
+        <f t="shared" si="5"/>
         <v>5.4427953162471533E-4</v>
       </c>
       <c r="E82" s="29">
-        <f>F33*10^6/E58</f>
+        <f t="shared" si="5"/>
         <v>1.2547612516376652E-3</v>
       </c>
       <c r="F82" s="29">
-        <f>G33*10^6/F58</f>
+        <f t="shared" si="5"/>
         <v>1.903541461259452E-3</v>
       </c>
       <c r="G82" s="29">
-        <f>H33*10^6/G58</f>
+        <f t="shared" si="5"/>
         <v>2.5431620761818532E-3</v>
       </c>
       <c r="H82" s="29">
-        <f>I33*10^6/H58</f>
+        <f t="shared" si="5"/>
         <v>3.206071428754822E-3</v>
       </c>
       <c r="I82" s="29">
-        <f>J33*10^6/I58</f>
+        <f t="shared" si="5"/>
         <v>3.6539824046691416E-3</v>
       </c>
       <c r="J82" s="29">
-        <f>K33*10^6/J58</f>
+        <f t="shared" si="5"/>
         <v>4.1648581638994864E-3</v>
       </c>
       <c r="K82" s="29">
-        <f>L33*10^6/K58</f>
+        <f t="shared" si="5"/>
         <v>4.7209866605924739E-3</v>
       </c>
       <c r="L82" s="29">
-        <f>M33*10^6/L58</f>
+        <f t="shared" si="5"/>
         <v>5.4190946236962363E-3</v>
       </c>
       <c r="M82" s="29">
-        <f>N33*10^6/M58</f>
+        <f t="shared" si="5"/>
         <v>6.1789810044871694E-3</v>
       </c>
       <c r="N82" s="29">
-        <f>O33*10^6/N58</f>
+        <f t="shared" si="5"/>
         <v>6.8327920437123045E-3</v>
       </c>
       <c r="O82" s="29">
-        <f>P33*10^6/O58</f>
+        <f t="shared" si="5"/>
         <v>7.4262901331617814E-3</v>
       </c>
       <c r="P82" s="29">
-        <f>Q33*10^6/P58</f>
+        <f t="shared" si="5"/>
         <v>7.94212200981902E-3</v>
       </c>
       <c r="Q82" s="29">
-        <f>R33*10^6/Q58</f>
+        <f t="shared" si="5"/>
         <v>8.5178126618330654E-3</v>
       </c>
       <c r="R82" s="29">
-        <f>S33*10^6/R58</f>
+        <f t="shared" si="5"/>
         <v>9.1454223276793197E-3</v>
       </c>
       <c r="S82" s="29">
-        <f>T33*10^6/S58</f>
+        <f t="shared" si="5"/>
         <v>9.8005002244105598E-3</v>
       </c>
       <c r="T82" s="29">
-        <f>U33*10^6/T58</f>
+        <f t="shared" si="5"/>
         <v>1.0437478070828638E-2</v>
       </c>
       <c r="U82" s="29">
-        <f>V33*10^6/U58</f>
+        <f t="shared" si="5"/>
         <v>1.1112481538301917E-2</v>
       </c>
       <c r="V82" s="29">
-        <f>W33*10^6/V58</f>
+        <f t="shared" si="5"/>
         <v>1.1709250775859183E-2</v>
       </c>
       <c r="W82" s="29">
-        <f>X33*10^6/W58</f>
+        <f t="shared" si="5"/>
         <v>1.2316690109345635E-2</v>
       </c>
       <c r="X82" s="29">
-        <f>Y33*10^6/X58</f>
+        <f t="shared" si="5"/>
         <v>1.2990014970808646E-2</v>
       </c>
       <c r="Y82" s="29">
-        <f>Z33*10^6/Y58</f>
+        <f t="shared" si="5"/>
         <v>1.3606276195386973E-2</v>
       </c>
       <c r="Z82" s="29">
-        <f>AA33*10^6/Z58</f>
+        <f t="shared" si="5"/>
         <v>1.419933058413949E-2</v>
       </c>
       <c r="AA82" s="29">
-        <f>AB33*10^6/AA58</f>
+        <f t="shared" si="5"/>
         <v>1.476660448394294E-2</v>
       </c>
       <c r="AB82" s="29">
-        <f>AC33*10^6/AB58</f>
+        <f t="shared" si="5"/>
         <v>1.5413661768696327E-2</v>
       </c>
       <c r="AC82" s="29">
-        <f>AD33*10^6/AC58</f>
+        <f t="shared" si="5"/>
         <v>1.5912520573667956E-2</v>
       </c>
       <c r="AD82" s="29">
-        <f>AE33*10^6/AD58</f>
+        <f t="shared" si="5"/>
         <v>1.6395733503759218E-2</v>
       </c>
       <c r="AE82" s="29">
-        <f>AF33*10^6/AE58</f>
+        <f t="shared" si="5"/>
         <v>1.6915756275758358E-2</v>
       </c>
       <c r="AF82" s="29">
-        <f>AG33*10^6/AF58</f>
+        <f t="shared" si="5"/>
         <v>1.7486588022043854E-2</v>
       </c>
       <c r="AG82" s="29">
-        <f>AH33*10^6/AG58</f>
+        <f t="shared" si="5"/>
         <v>1.7960634496096167E-2</v>
       </c>
     </row>
-    <row r="83" spans="1:33" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:33" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A83" s="27" t="s">
         <v>117</v>
       </c>
       <c r="B83" s="29">
-        <f>C34*10^6/B59</f>
+        <f t="shared" ref="B83:AG83" si="6">C34*10^6/B59</f>
         <v>2.9182108865941562E-3</v>
       </c>
       <c r="C83" s="29">
-        <f>D34*10^6/C59</f>
+        <f t="shared" si="6"/>
         <v>2.8914269191846176E-3</v>
       </c>
       <c r="D83" s="29">
-        <f>E34*10^6/D59</f>
+        <f t="shared" si="6"/>
         <v>3.0257316867589659E-3</v>
       </c>
       <c r="E83" s="29">
-        <f>F34*10^6/E59</f>
+        <f t="shared" si="6"/>
         <v>2.8321964087749535E-3</v>
       </c>
       <c r="F83" s="29">
-        <f>G34*10^6/F59</f>
+        <f t="shared" si="6"/>
         <v>2.8291630123311092E-3</v>
       </c>
       <c r="G83" s="29">
-        <f>H34*10^6/G59</f>
+        <f t="shared" si="6"/>
         <v>3.0448749317621778E-3</v>
       </c>
       <c r="H83" s="29">
-        <f>I34*10^6/H59</f>
+        <f t="shared" si="6"/>
         <v>3.3655464205009857E-3</v>
       </c>
       <c r="I83" s="29">
-        <f>J34*10^6/I59</f>
+        <f t="shared" si="6"/>
         <v>3.5776986708849438E-3</v>
       </c>
       <c r="J83" s="29">
-        <f>K34*10^6/J59</f>
+        <f t="shared" si="6"/>
         <v>3.7108406909585365E-3</v>
       </c>
       <c r="K83" s="29">
-        <f>L34*10^6/K59</f>
+        <f t="shared" si="6"/>
         <v>3.7969499643357913E-3</v>
       </c>
       <c r="L83" s="29">
-        <f>M34*10^6/L59</f>
+        <f t="shared" si="6"/>
         <v>3.7724257236320916E-3</v>
       </c>
       <c r="M83" s="29">
-        <f>N34*10^6/M59</f>
+        <f t="shared" si="6"/>
         <v>3.6910778738336852E-3</v>
       </c>
       <c r="N83" s="29">
-        <f>O34*10^6/N59</f>
+        <f t="shared" si="6"/>
         <v>3.6788761558897492E-3</v>
       </c>
       <c r="O83" s="29">
-        <f>P34*10^6/O59</f>
+        <f t="shared" si="6"/>
         <v>3.705556481944676E-3</v>
       </c>
       <c r="P83" s="29">
-        <f>Q34*10^6/P59</f>
+        <f t="shared" si="6"/>
         <v>3.7536833017398322E-3</v>
       </c>
       <c r="Q83" s="29">
-        <f>R34*10^6/Q59</f>
+        <f t="shared" si="6"/>
         <v>3.8017754291254017E-3</v>
       </c>
       <c r="R83" s="29">
-        <f>S34*10^6/R59</f>
+        <f t="shared" si="6"/>
         <v>3.8125842513037677E-3</v>
       </c>
       <c r="S83" s="29">
-        <f>T34*10^6/S59</f>
+        <f t="shared" si="6"/>
         <v>3.8042857996880486E-3</v>
       </c>
       <c r="T83" s="29">
-        <f>U34*10^6/T59</f>
+        <f t="shared" si="6"/>
         <v>3.8112349762478392E-3</v>
       </c>
       <c r="U83" s="29">
-        <f>V34*10^6/U59</f>
+        <f t="shared" si="6"/>
         <v>3.8310192152978071E-3</v>
       </c>
       <c r="V83" s="29">
-        <f>W34*10^6/V59</f>
+        <f t="shared" si="6"/>
         <v>3.8419952029945608E-3</v>
       </c>
       <c r="W83" s="29">
-        <f>X34*10^6/W59</f>
+        <f t="shared" si="6"/>
         <v>3.8550182700330155E-3</v>
       </c>
       <c r="X83" s="29">
-        <f>Y34*10^6/X59</f>
+        <f t="shared" si="6"/>
         <v>3.8375825422887889E-3</v>
       </c>
       <c r="Y83" s="29">
-        <f>Z34*10^6/Y59</f>
+        <f t="shared" si="6"/>
         <v>3.8692524327924669E-3</v>
       </c>
       <c r="Z83" s="29">
-        <f>AA34*10^6/Z59</f>
+        <f t="shared" si="6"/>
         <v>3.8639876352395673E-3</v>
       </c>
       <c r="AA83" s="29">
-        <f>AB34*10^6/AA59</f>
+        <f t="shared" si="6"/>
         <v>3.8746066582347844E-3</v>
       </c>
       <c r="AB83" s="29">
-        <f>AC34*10^6/AB59</f>
+        <f t="shared" si="6"/>
         <v>3.9108330074305829E-3</v>
       </c>
       <c r="AC83" s="29">
-        <f>AD34*10^6/AC59</f>
+        <f t="shared" si="6"/>
         <v>3.9210633923920171E-3</v>
       </c>
       <c r="AD83" s="29">
-        <f>AE34*10^6/AD59</f>
+        <f t="shared" si="6"/>
         <v>3.992380257109289E-3</v>
       </c>
       <c r="AE83" s="29">
-        <f>AF34*10^6/AE59</f>
+        <f t="shared" si="6"/>
         <v>4.0295886941254357E-3</v>
       </c>
       <c r="AF83" s="29">
-        <f>AG34*10^6/AF59</f>
+        <f t="shared" si="6"/>
         <v>4.0404390225600795E-3</v>
       </c>
       <c r="AG83" s="29">
-        <f>AH34*10^6/AG59</f>
+        <f t="shared" si="6"/>
         <v>4.0599127118766945E-3</v>
       </c>
     </row>
-    <row r="84" spans="1:33" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:33" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A84" s="28" t="s">
         <v>164</v>
       </c>
       <c r="B84" s="29">
-        <f>C35*10^6/B77</f>
+        <f t="shared" ref="B84:AG84" si="7">C35*10^6/B77</f>
         <v>3.7571423528284472E-3</v>
       </c>
       <c r="C84" s="29">
-        <f>D35*10^6/C77</f>
+        <f t="shared" si="7"/>
         <v>4.0256778809263918E-3</v>
       </c>
       <c r="D84" s="29">
-        <f>E35*10^6/D77</f>
+        <f t="shared" si="7"/>
         <v>3.8992170162877359E-3</v>
       </c>
       <c r="E84" s="29">
-        <f>F35*10^6/E77</f>
+        <f t="shared" si="7"/>
         <v>3.7654788981551679E-3</v>
       </c>
       <c r="F84" s="29">
-        <f>G35*10^6/F77</f>
+        <f t="shared" si="7"/>
         <v>3.7273389051629899E-3</v>
       </c>
       <c r="G84" s="29">
-        <f>H35*10^6/G77</f>
+        <f t="shared" si="7"/>
         <v>3.6627155225392206E-3</v>
       </c>
       <c r="H84" s="29">
-        <f>I35*10^6/H77</f>
+        <f t="shared" si="7"/>
         <v>3.5994076679461877E-3</v>
       </c>
       <c r="I84" s="29">
-        <f>J35*10^6/I77</f>
+        <f t="shared" si="7"/>
         <v>3.539402577350199E-3</v>
       </c>
       <c r="J84" s="29">
-        <f>K35*10^6/J77</f>
+        <f t="shared" si="7"/>
         <v>3.538435963808212E-3</v>
       </c>
       <c r="K84" s="29">
-        <f>L35*10^6/K77</f>
+        <f t="shared" si="7"/>
         <v>3.5043651689621435E-3</v>
       </c>
       <c r="L84" s="29">
-        <f>M35*10^6/L77</f>
+        <f t="shared" si="7"/>
         <v>3.4955765707220827E-3</v>
       </c>
       <c r="M84" s="29">
-        <f>N35*10^6/M77</f>
+        <f t="shared" si="7"/>
         <v>3.5256592272890756E-3</v>
       </c>
       <c r="N84" s="29">
-        <f>O35*10^6/N77</f>
+        <f t="shared" si="7"/>
         <v>3.5273535615617893E-3</v>
       </c>
       <c r="O84" s="29">
-        <f>P35*10^6/O77</f>
+        <f t="shared" si="7"/>
         <v>3.51025985346432E-3</v>
       </c>
       <c r="P84" s="29">
-        <f>Q35*10^6/P77</f>
+        <f t="shared" si="7"/>
         <v>3.5210601935874168E-3</v>
       </c>
       <c r="Q84" s="29">
-        <f>R35*10^6/Q77</f>
+        <f t="shared" si="7"/>
         <v>3.4832127845597829E-3</v>
       </c>
       <c r="R84" s="29">
-        <f>S35*10^6/R77</f>
+        <f t="shared" si="7"/>
         <v>3.4751781320334456E-3</v>
       </c>
       <c r="S84" s="29">
-        <f>T35*10^6/S77</f>
+        <f t="shared" si="7"/>
         <v>3.4783826687832665E-3</v>
       </c>
       <c r="T84" s="29">
-        <f>U35*10^6/T77</f>
+        <f t="shared" si="7"/>
         <v>3.437377442498904E-3</v>
       </c>
       <c r="U84" s="29">
-        <f>V35*10^6/U77</f>
+        <f t="shared" si="7"/>
         <v>3.4285109447733616E-3</v>
       </c>
       <c r="V84" s="29">
-        <f>W35*10^6/V77</f>
+        <f t="shared" si="7"/>
         <v>3.4142127489912031E-3</v>
       </c>
       <c r="W84" s="29">
-        <f>X35*10^6/W77</f>
+        <f t="shared" si="7"/>
         <v>3.3956012151238712E-3</v>
       </c>
       <c r="X84" s="29">
-        <f>Y35*10^6/X77</f>
+        <f t="shared" si="7"/>
         <v>3.3767016650085324E-3</v>
       </c>
       <c r="Y84" s="29">
-        <f>Z35*10^6/Y77</f>
+        <f t="shared" si="7"/>
         <v>3.3666686249079251E-3</v>
       </c>
       <c r="Z84" s="29">
-        <f>AA35*10^6/Z77</f>
+        <f t="shared" si="7"/>
         <v>3.3564681845111382E-3</v>
       </c>
       <c r="AA84" s="29">
-        <f>AB35*10^6/AA77</f>
+        <f t="shared" si="7"/>
         <v>3.3452324824319165E-3</v>
       </c>
       <c r="AB84" s="29">
-        <f>AC35*10^6/AB77</f>
+        <f t="shared" si="7"/>
         <v>3.3315296863890244E-3</v>
       </c>
       <c r="AC84" s="29">
-        <f>AD35*10^6/AC77</f>
+        <f t="shared" si="7"/>
         <v>3.3328636008795182E-3</v>
       </c>
       <c r="AD84" s="29">
-        <f>AE35*10^6/AD77</f>
+        <f t="shared" si="7"/>
         <v>3.3076637904051109E-3</v>
       </c>
       <c r="AE84" s="29">
-        <f>AF35*10^6/AE77</f>
+        <f t="shared" si="7"/>
         <v>3.2884790673961646E-3</v>
       </c>
       <c r="AF84" s="29">
-        <f>AG35*10^6/AF77</f>
+        <f t="shared" si="7"/>
         <v>3.2761149234730338E-3</v>
       </c>
       <c r="AG84" s="29">
-        <f>AH35*10^6/AG77</f>
+        <f t="shared" si="7"/>
         <v>3.273890612503186E-3</v>
       </c>
     </row>
-    <row r="85" spans="1:33" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:33" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A85" s="28" t="s">
         <v>165</v>
       </c>
       <c r="B85" s="29">
-        <f>C36*10^6/B78</f>
+        <f t="shared" ref="B85:AG85" si="8">C36*10^6/B78</f>
         <v>9.0928820316613142E-3</v>
       </c>
       <c r="C85" s="29">
-        <f>D36*10^6/C78</f>
+        <f t="shared" si="8"/>
         <v>1.4176416644885193E-2</v>
       </c>
       <c r="D85" s="29">
-        <f>E36*10^6/D78</f>
+        <f t="shared" si="8"/>
         <v>1.6867376557302197E-2</v>
       </c>
       <c r="E85" s="29">
-        <f>F36*10^6/E78</f>
+        <f t="shared" si="8"/>
         <v>1.9451002636904396E-2</v>
       </c>
       <c r="F85" s="29">
-        <f>G36*10^6/F78</f>
+        <f t="shared" si="8"/>
         <v>2.2025745853115293E-2</v>
       </c>
       <c r="G85" s="29">
-        <f>H36*10^6/G78</f>
+        <f t="shared" si="8"/>
         <v>2.4468126304820044E-2</v>
       </c>
       <c r="H85" s="29">
-        <f>I36*10^6/H78</f>
+        <f t="shared" si="8"/>
         <v>2.6849784180498631E-2</v>
       </c>
       <c r="I85" s="29">
-        <f>J36*10^6/I78</f>
+        <f t="shared" si="8"/>
         <v>2.9322833599149389E-2</v>
       </c>
       <c r="J85" s="29">
-        <f>K36*10^6/J78</f>
+        <f t="shared" si="8"/>
         <v>3.1707958738242475E-2</v>
       </c>
       <c r="K85" s="29">
-        <f>L36*10^6/K78</f>
+        <f t="shared" si="8"/>
         <v>3.4001715974451049E-2</v>
       </c>
       <c r="L85" s="29">
-        <f>M36*10^6/L78</f>
+        <f t="shared" si="8"/>
         <v>3.630014566846855E-2</v>
       </c>
       <c r="M85" s="29">
-        <f>N36*10^6/M78</f>
+        <f t="shared" si="8"/>
         <v>3.8489909981053477E-2</v>
       </c>
       <c r="N85" s="29">
-        <f>O36*10^6/N78</f>
+        <f t="shared" si="8"/>
         <v>4.0875499505410237E-2</v>
       </c>
       <c r="O85" s="29">
-        <f>P36*10^6/O78</f>
+        <f t="shared" si="8"/>
         <v>4.3203970579441489E-2</v>
       </c>
       <c r="P85" s="29">
-        <f>Q36*10^6/P78</f>
+        <f t="shared" si="8"/>
         <v>4.5520299613058965E-2</v>
       </c>
       <c r="Q85" s="29">
-        <f>R36*10^6/Q78</f>
+        <f t="shared" si="8"/>
         <v>4.7772471351148878E-2</v>
       </c>
       <c r="R85" s="29">
-        <f>S36*10^6/R78</f>
+        <f t="shared" si="8"/>
         <v>4.9934770220508476E-2</v>
       </c>
       <c r="S85" s="29">
-        <f>T36*10^6/S78</f>
+        <f t="shared" si="8"/>
         <v>5.2155124240956675E-2</v>
       </c>
       <c r="T85" s="29">
-        <f>U36*10^6/T78</f>
+        <f t="shared" si="8"/>
         <v>5.4326535478669648E-2</v>
       </c>
       <c r="U85" s="29">
-        <f>V36*10^6/U78</f>
+        <f t="shared" si="8"/>
         <v>5.6464995921581863E-2</v>
       </c>
       <c r="V85" s="29">
-        <f>W36*10^6/V78</f>
+        <f t="shared" si="8"/>
         <v>5.8524608884321115E-2</v>
       </c>
       <c r="W85" s="29">
-        <f>X36*10^6/W78</f>
+        <f t="shared" si="8"/>
         <v>6.0523841430292803E-2</v>
       </c>
       <c r="X85" s="29">
-        <f>Y36*10^6/X78</f>
+        <f t="shared" si="8"/>
         <v>6.252390318527018E-2</v>
       </c>
       <c r="Y85" s="29">
-        <f>Z36*10^6/Y78</f>
+        <f t="shared" si="8"/>
         <v>6.4399550216782536E-2</v>
       </c>
       <c r="Z85" s="29">
-        <f>AA36*10^6/Z78</f>
+        <f t="shared" si="8"/>
         <v>6.631237581074495E-2</v>
       </c>
       <c r="AA85" s="29">
-        <f>AB36*10^6/AA78</f>
+        <f t="shared" si="8"/>
         <v>6.8128017050560527E-2</v>
       </c>
       <c r="AB85" s="29">
-        <f>AC36*10^6/AB78</f>
+        <f t="shared" si="8"/>
         <v>6.9927178604055312E-2</v>
       </c>
       <c r="AC85" s="29">
-        <f>AD36*10^6/AC78</f>
+        <f t="shared" si="8"/>
         <v>7.1616122003225646E-2</v>
       </c>
       <c r="AD85" s="29">
-        <f>AE36*10^6/AD78</f>
+        <f t="shared" si="8"/>
         <v>7.3368586279656214E-2</v>
       </c>
       <c r="AE85" s="29">
-        <f>AF36*10^6/AE78</f>
+        <f t="shared" si="8"/>
         <v>7.5067420484611819E-2</v>
       </c>
       <c r="AF85" s="29">
-        <f>AG36*10^6/AF78</f>
+        <f t="shared" si="8"/>
         <v>7.6602250612565925E-2</v>
       </c>
       <c r="AG85" s="29">
-        <f>AH36*10^6/AG78</f>
+        <f t="shared" si="8"/>
         <v>7.8301342058756621E-2</v>
       </c>
     </row>
-    <row r="86" spans="1:33" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:33" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A86" s="28" t="s">
         <v>178</v>
       </c>
       <c r="B86" s="29">
-        <f>C37*10^6/B77</f>
+        <f t="shared" ref="B86:AG86" si="9">C37*10^6/B77</f>
         <v>5.6922487755766443E-2</v>
       </c>
       <c r="C86" s="29">
-        <f>D37*10^6/C77</f>
+        <f t="shared" si="9"/>
         <v>6.114853314710661E-2</v>
       </c>
       <c r="D86" s="29">
-        <f>E37*10^6/D77</f>
+        <f t="shared" si="9"/>
         <v>5.9380294079138446E-2</v>
       </c>
       <c r="E86" s="29">
-        <f>F37*10^6/E77</f>
+        <f t="shared" si="9"/>
         <v>5.7491044602492658E-2</v>
       </c>
       <c r="F86" s="29">
-        <f>G37*10^6/F77</f>
+        <f t="shared" si="9"/>
         <v>5.7054650999851624E-2</v>
       </c>
       <c r="G86" s="29">
-        <f>H37*10^6/G77</f>
+        <f t="shared" si="9"/>
         <v>5.6208851027952214E-2</v>
       </c>
       <c r="H86" s="29">
-        <f>I37*10^6/H77</f>
+        <f t="shared" si="9"/>
         <v>5.5378230949606706E-2</v>
       </c>
       <c r="I86" s="29">
-        <f>J37*10^6/I77</f>
+        <f t="shared" si="9"/>
         <v>5.459359744055986E-2</v>
       </c>
       <c r="J86" s="29">
-        <f>K37*10^6/J77</f>
+        <f t="shared" si="9"/>
         <v>5.471721725966662E-2</v>
       </c>
       <c r="K86" s="29">
-        <f>L37*10^6/K77</f>
+        <f t="shared" si="9"/>
         <v>5.4327553128072421E-2</v>
       </c>
       <c r="L86" s="29">
-        <f>M37*10^6/L77</f>
+        <f t="shared" si="9"/>
         <v>5.4328156476411163E-2</v>
       </c>
       <c r="M86" s="29">
-        <f>N37*10^6/M77</f>
+        <f t="shared" si="9"/>
         <v>5.493372947515715E-2</v>
       </c>
       <c r="N86" s="29">
-        <f>O37*10^6/N77</f>
+        <f t="shared" si="9"/>
         <v>5.509822460295101E-2</v>
       </c>
       <c r="O86" s="29">
-        <f>P37*10^6/O77</f>
+        <f t="shared" si="9"/>
         <v>5.4968642501330336E-2</v>
       </c>
       <c r="P86" s="29">
-        <f>Q37*10^6/P77</f>
+        <f t="shared" si="9"/>
         <v>5.5275618704327865E-2</v>
       </c>
       <c r="Q86" s="29">
-        <f>R37*10^6/Q77</f>
+        <f t="shared" si="9"/>
         <v>5.4817835800896622E-2</v>
       </c>
       <c r="R86" s="29">
-        <f>S37*10^6/R77</f>
+        <f t="shared" si="9"/>
         <v>5.48274415051479E-2</v>
       </c>
       <c r="S86" s="29">
-        <f>T37*10^6/S77</f>
+        <f t="shared" si="9"/>
         <v>5.5014177364536877E-2</v>
       </c>
       <c r="T86" s="29">
-        <f>U37*10^6/T77</f>
+        <f t="shared" si="9"/>
         <v>5.4500210739396829E-2</v>
       </c>
       <c r="U86" s="29">
-        <f>V37*10^6/U77</f>
+        <f t="shared" si="9"/>
         <v>5.449385671249448E-2</v>
       </c>
       <c r="V86" s="29">
-        <f>W37*10^6/V77</f>
+        <f t="shared" si="9"/>
         <v>5.4400262632869054E-2</v>
       </c>
       <c r="W86" s="29">
-        <f>X37*10^6/W77</f>
+        <f t="shared" si="9"/>
         <v>5.4236653690166989E-2</v>
       </c>
       <c r="X86" s="29">
-        <f>Y37*10^6/X77</f>
+        <f t="shared" si="9"/>
         <v>5.4066975818146908E-2</v>
       </c>
       <c r="Y86" s="29">
-        <f>Z37*10^6/Y77</f>
+        <f t="shared" si="9"/>
         <v>5.4038133771692455E-2</v>
       </c>
       <c r="Z86" s="29">
-        <f>AA37*10^6/Z77</f>
+        <f t="shared" si="9"/>
         <v>5.4005812657728872E-2</v>
       </c>
       <c r="AA86" s="29">
-        <f>AB37*10^6/AA77</f>
+        <f t="shared" si="9"/>
         <v>5.3955994886822678E-2</v>
       </c>
       <c r="AB86" s="29">
-        <f>AC37*10^6/AB77</f>
+        <f t="shared" si="9"/>
         <v>5.3865408472086734E-2</v>
       </c>
       <c r="AC86" s="29">
-        <f>AD37*10^6/AC77</f>
+        <f t="shared" si="9"/>
         <v>5.4017456933824412E-2</v>
       </c>
       <c r="AD86" s="29">
-        <f>AE37*10^6/AD77</f>
+        <f t="shared" si="9"/>
         <v>5.3738525142772726E-2</v>
       </c>
       <c r="AE86" s="29">
-        <f>AF37*10^6/AE77</f>
+        <f t="shared" si="9"/>
         <v>5.355558084885359E-2</v>
       </c>
       <c r="AF86" s="29">
-        <f>AG37*10^6/AF77</f>
+        <f t="shared" si="9"/>
         <v>5.3482480149176122E-2</v>
       </c>
       <c r="AG86" s="29">
-        <f>AH37*10^6/AG77</f>
+        <f t="shared" si="9"/>
         <v>5.3574340789028924E-2</v>
       </c>
     </row>
-    <row r="87" spans="1:33" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:33" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A87" s="20"/>
     </row>
-    <row r="88" spans="1:33" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:33" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A88" s="20"/>
     </row>
-    <row r="89" spans="1:33" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:33" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A89" s="20"/>
     </row>
-    <row r="90" spans="1:33" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:33" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A90" s="20"/>
     </row>
-    <row r="91" spans="1:33" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:33" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A91" s="20"/>
     </row>
-    <row r="92" spans="1:33" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:33" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A92" s="20"/>
     </row>
-    <row r="93" spans="1:33" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:33" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A93" s="20"/>
     </row>
-    <row r="94" spans="1:33" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:33" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A94" s="20"/>
     </row>
-    <row r="95" spans="1:33" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:33" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A95" s="20"/>
     </row>
-    <row r="96" spans="1:33" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:33" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A96" s="20"/>
     </row>
-    <row r="97" spans="1:1" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:1" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A97" s="20"/>
     </row>
-    <row r="98" spans="1:1" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:1" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A98" s="20"/>
     </row>
-    <row r="99" spans="1:1" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:1" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A99" s="20"/>
     </row>
-    <row r="100" spans="1:1" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:1" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A100" s="20"/>
     </row>
-    <row r="101" spans="1:1" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:1" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A101" s="20"/>
     </row>
-    <row r="102" spans="1:1" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:1" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A102" s="20"/>
     </row>
-    <row r="103" spans="1:1" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:1" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A103" s="20"/>
     </row>
-    <row r="104" spans="1:1" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:1" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A104" s="20"/>
     </row>
-    <row r="105" spans="1:1" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:1" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A105" s="20"/>
     </row>
-    <row r="106" spans="1:1" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:1" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A106" s="20"/>
     </row>
-    <row r="107" spans="1:1" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:1" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A107" s="20"/>
     </row>
-    <row r="108" spans="1:1" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:1" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A108" s="20"/>
     </row>
-    <row r="109" spans="1:1" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:1" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="110" spans="1:1" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:1" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="111" spans="1:1" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:1" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="112" spans="1:1" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:1" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A114" s="14" t="s">
         <v>113</v>
       </c>
       <c r="B114" s="7"/>
       <c r="C114" s="7"/>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B115">
         <v>2019</v>
       </c>
@@ -13333,7 +13337,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A116" s="27" t="s">
         <v>116</v>
       </c>
@@ -13346,12 +13350,12 @@
         <v>1.7960634496096167E-2</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A117" s="27" t="s">
         <v>117</v>
       </c>
       <c r="B117" s="30">
-        <f t="shared" ref="B117:B120" si="5">B83</f>
+        <f t="shared" ref="B117:B120" si="10">B83</f>
         <v>2.9182108865941562E-3</v>
       </c>
       <c r="C117" s="30">
@@ -13359,12 +13363,12 @@
         <v>4.0599127118766945E-3</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A118" s="28" t="s">
         <v>164</v>
       </c>
       <c r="B118" s="30">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>3.7571423528284472E-3</v>
       </c>
       <c r="C118" s="30">
@@ -13375,12 +13379,12 @@
         <v>152</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A119" s="28" t="s">
         <v>165</v>
       </c>
       <c r="B119" s="30">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>9.0928820316613142E-3</v>
       </c>
       <c r="C119" s="30">
@@ -13388,12 +13392,12 @@
         <v>7.8301342058756621E-2</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A120" s="28" t="s">
         <v>178</v>
       </c>
       <c r="B120" s="30">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>5.6922487755766443E-2</v>
       </c>
       <c r="C120" s="30">
@@ -13419,12 +13423,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="44.85546875" customWidth="1"/>
+    <col min="1" max="1" width="44.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>115</v>
       </c>
@@ -13525,7 +13529,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
         <v>116</v>
       </c>
@@ -13658,7 +13662,7 @@
         <v>1.7960634496096084E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
         <v>117</v>
       </c>
@@ -13791,7 +13795,7 @@
         <v>4.0599127118766953E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:33" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:33" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="16" t="s">
         <v>125</v>
       </c>
@@ -13892,7 +13896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:33" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:33" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="16" t="s">
         <v>126</v>
       </c>
@@ -13993,7 +13997,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:33" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:33" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="16" t="s">
         <v>127</v>
       </c>
@@ -14094,7 +14098,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:33" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:33" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="16" t="s">
         <v>128</v>
       </c>
@@ -14195,7 +14199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:33" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:33" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="16" t="s">
         <v>129</v>
       </c>
@@ -14296,7 +14300,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
         <v>118</v>
       </c>
@@ -14397,7 +14401,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:33" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:33" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="16" t="s">
         <v>130</v>
       </c>
@@ -14498,7 +14502,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="8" t="s">
         <v>119</v>
       </c>
@@ -14599,7 +14603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="8" t="s">
         <v>120</v>
       </c>
@@ -14700,7 +14704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="8" t="s">
         <v>121</v>
       </c>
@@ -14801,7 +14805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:33" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:33" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="16" t="s">
         <v>131</v>
       </c>
@@ -14902,7 +14906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="8" t="s">
         <v>122</v>
       </c>
@@ -15003,7 +15007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="8" t="s">
         <v>123</v>
       </c>
@@ -15104,7 +15108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="8" t="s">
         <v>124</v>
       </c>
@@ -15220,12 +15224,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="44.85546875" customWidth="1"/>
+    <col min="1" max="1" width="44.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>115</v>
       </c>
@@ -15326,7 +15330,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>156</v>
       </c>
@@ -15427,7 +15431,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>157</v>
       </c>
@@ -15528,7 +15532,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>158</v>
       </c>
@@ -15629,7 +15633,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>159</v>
       </c>
@@ -15730,7 +15734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>160</v>
       </c>
@@ -15831,7 +15835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>161</v>
       </c>
@@ -15932,7 +15936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>162</v>
       </c>
@@ -16033,7 +16037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>163</v>
       </c>
@@ -16134,7 +16138,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>164</v>
       </c>
@@ -16267,7 +16271,7 @@
         <v>3.7571423528284472E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>165</v>
       </c>
@@ -16400,7 +16404,7 @@
         <v>7.8301342058756163E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>166</v>
       </c>
@@ -16501,7 +16505,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>167</v>
       </c>
@@ -16602,7 +16606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>168</v>
       </c>
@@ -16703,7 +16707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>169</v>
       </c>
@@ -16804,7 +16808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>170</v>
       </c>
@@ -16905,7 +16909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>171</v>
       </c>
@@ -17006,7 +17010,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>172</v>
       </c>
@@ -17107,7 +17111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>173</v>
       </c>
@@ -17208,7 +17212,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>174</v>
       </c>
@@ -17309,7 +17313,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>175</v>
       </c>
@@ -17410,7 +17414,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>176</v>
       </c>
@@ -17511,7 +17515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>177</v>
       </c>
@@ -17612,7 +17616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>178</v>
       </c>
@@ -17745,7 +17749,7 @@
         <v>5.6922487755766443E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>179</v>
       </c>
@@ -17846,7 +17850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>180</v>
       </c>

--- a/InputData/ccs/BFoCPAbS/BAU Fraction of CCS Potential Achieved by Sector.xlsx
+++ b/InputData/ccs/BFoCPAbS/BAU Fraction of CCS Potential Achieved by Sector.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/users/nathaniyer/library/containers/com.microsoft.excel/data/state-eps-data-repository/nj/ccs/bfocpabs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/users/nathaniyer/library/containers/com.microsoft.excel/data/state-eps-data-repository/template_state/ccs/bfocpabs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E714CFA-82AF-4949-985D-62A2DC04D389}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32B63981-BBAB-E64B-96F6-9084C030BF3C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
